--- a/pretix_file.xlsx
+++ b/pretix_file.xlsx
@@ -431,10 +431,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE10"/>
+  <dimension ref="A1:AE12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="AD7" sqref="AD7"/>
+      <selection activeCell="AA11" sqref="AA11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
@@ -681,6 +681,11 @@
           <t>ml@wik.org</t>
         </is>
       </c>
+      <c r="AE2" s="3" t="inlineStr">
+        <is>
+          <t>Mittelstand-Digital Zentrum Kaiserslautern</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="B3" t="n">
@@ -731,7 +736,7 @@
       </c>
       <c r="AE3" s="3" t="inlineStr">
         <is>
-          <t>MD Zentrum Lingen.Münster.Osnabrück</t>
+          <t>Mittelstand-Digital Zentrum Lingen.Münster.Osnabrück</t>
         </is>
       </c>
     </row>
@@ -973,6 +978,60 @@
       <c r="AD10" t="inlineStr">
         <is>
           <t>zzz</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>Testperson</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>Testnachname</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>Testmail@mail.com</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>TestOrganisation</t>
+        </is>
+      </c>
+      <c r="AD11" t="inlineStr">
+        <is>
+          <t>Testmail@mail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>Neuertest</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>Nachname</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>Neuemail@mail.de</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>NeueOrganisation</t>
+        </is>
+      </c>
+      <c r="AD12" t="inlineStr">
+        <is>
+          <t>Neuemail@mail.de</t>
         </is>
       </c>
     </row>
